--- a/02-WOS导出信息处理/WOS信息过滤后.xlsx
+++ b/02-WOS导出信息处理/WOS信息过滤后.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\code\py\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939C4466-78F7-464C-B623-4A9FB495811F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="300" windowWidth="30936" windowHeight="16368" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="522">
   <si>
     <t>文献标题</t>
   </si>
@@ -73,9 +67,6 @@
     <t>DOI Link</t>
   </si>
   <si>
-    <t>是否OA</t>
-  </si>
-  <si>
     <t>WOS ID</t>
   </si>
   <si>
@@ -1139,9 +1130,6 @@
   </si>
   <si>
     <t>http://dx.doi.org/10.1080/15389588.2016.1241994</t>
-  </si>
-  <si>
-    <t>是</t>
   </si>
   <si>
     <t>WOS:000337583100006</t>
@@ -1597,12 +1585,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1610,7 +1598,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1620,13 +1608,6 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1676,24 +1657,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1735,7 +1708,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1767,27 +1740,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1819,24 +1774,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2012,16 +1949,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U51"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2082,37 +2017,34 @@
       <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
       <c r="B2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E2">
         <v>2014</v>
       </c>
       <c r="F2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K2">
         <v>9</v>
@@ -2130,51 +2062,48 @@
         <v>732</v>
       </c>
       <c r="P2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="R2" t="s">
-        <v>373</v>
-      </c>
-      <c r="S2" t="s">
-        <v>374</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="U2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>372</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="T2" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E3">
         <v>2018</v>
       </c>
       <c r="G3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I3" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="J3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -2186,51 +2115,48 @@
         <v>484</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R3" t="s">
         <v>373</v>
       </c>
-      <c r="S3" t="s">
-        <v>375</v>
-      </c>
-      <c r="T3" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="U3" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+      <c r="S3" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="T3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E4">
         <v>2021</v>
       </c>
       <c r="F4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H4" t="s">
+        <v>229</v>
+      </c>
+      <c r="I4" t="s">
         <v>230</v>
       </c>
-      <c r="I4" t="s">
-        <v>231</v>
-      </c>
       <c r="J4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K4">
         <v>9</v>
@@ -2248,51 +2174,48 @@
         <v>1147</v>
       </c>
       <c r="P4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="Q4" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="R4" t="s">
-        <v>373</v>
-      </c>
-      <c r="S4" t="s">
-        <v>376</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="U4" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>374</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="T4" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E5">
         <v>2018</v>
       </c>
       <c r="G5" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" t="s">
+        <v>229</v>
+      </c>
+      <c r="I5" t="s">
         <v>230</v>
       </c>
-      <c r="I5" t="s">
-        <v>231</v>
-      </c>
       <c r="J5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="K5">
         <v>11</v>
@@ -2310,51 +2233,48 @@
         <v>809</v>
       </c>
       <c r="P5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="R5" t="s">
-        <v>373</v>
-      </c>
-      <c r="S5" t="s">
-        <v>377</v>
-      </c>
-      <c r="T5" s="2" t="s">
-        <v>427</v>
-      </c>
-      <c r="U5" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>375</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="T5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E6">
         <v>2009</v>
       </c>
       <c r="G6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -2366,48 +2286,45 @@
         <v>1384</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R6" t="s">
-        <v>373</v>
-      </c>
-      <c r="S6" t="s">
-        <v>378</v>
-      </c>
-      <c r="T6" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="U6" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>376</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="T6" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E7">
         <v>2018</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H7" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="K7">
         <v>59</v>
@@ -2425,51 +2342,48 @@
         <v>171</v>
       </c>
       <c r="P7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="R7" t="s">
-        <v>373</v>
-      </c>
-      <c r="S7" t="s">
-        <v>379</v>
-      </c>
-      <c r="T7" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="U7" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>377</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="T7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E8">
         <v>2020</v>
       </c>
       <c r="G8" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="J8" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="K8">
         <v>5</v>
@@ -2481,51 +2395,48 @@
         <v>650</v>
       </c>
       <c r="P8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="Q8" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="R8" t="s">
-        <v>373</v>
-      </c>
-      <c r="S8" t="s">
-        <v>380</v>
-      </c>
-      <c r="T8" s="2" t="s">
-        <v>430</v>
-      </c>
-      <c r="U8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>378</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="T8" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E9">
         <v>2013</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H9" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I9" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="K9">
         <v>517</v>
@@ -2543,51 +2454,48 @@
         <v>2427</v>
       </c>
       <c r="P9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="Q9" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="R9" t="s">
-        <v>373</v>
-      </c>
-      <c r="S9" t="s">
-        <v>381</v>
-      </c>
-      <c r="T9" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="U9" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>379</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="T9" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E10">
         <v>2012</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H10" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J10" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K10">
         <v>21</v>
@@ -2599,48 +2507,45 @@
         <v>344</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R10" t="s">
-        <v>373</v>
-      </c>
-      <c r="S10" t="s">
-        <v>382</v>
-      </c>
-      <c r="T10" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="U10" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>380</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="T10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E11">
         <v>2017</v>
       </c>
       <c r="G11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J11" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2652,51 +2557,48 @@
         <v>761</v>
       </c>
       <c r="P11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="Q11" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="R11" t="s">
-        <v>373</v>
-      </c>
-      <c r="S11" t="s">
-        <v>383</v>
-      </c>
-      <c r="T11" s="2" t="s">
-        <v>433</v>
-      </c>
-      <c r="U11" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>381</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="T11" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E12">
         <v>2012</v>
       </c>
       <c r="G12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="J12" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -2708,45 +2610,42 @@
         <v>829</v>
       </c>
       <c r="Q12" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R12" t="s">
-        <v>373</v>
-      </c>
-      <c r="S12" t="s">
-        <v>384</v>
-      </c>
-      <c r="T12" s="2" t="s">
-        <v>434</v>
-      </c>
-      <c r="U12" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>382</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="T12" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E13">
         <v>2011</v>
       </c>
       <c r="G13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K13">
         <v>11</v>
@@ -2764,51 +2663,48 @@
         <v>1854</v>
       </c>
       <c r="P13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q13" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="R13" t="s">
-        <v>373</v>
-      </c>
-      <c r="S13" t="s">
-        <v>385</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>435</v>
-      </c>
-      <c r="U13" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>383</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="T13" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E14">
         <v>2017</v>
       </c>
       <c r="F14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -2826,51 +2722,48 @@
         <v>969</v>
       </c>
       <c r="P14" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="R14" t="s">
-        <v>373</v>
-      </c>
-      <c r="S14" t="s">
-        <v>386</v>
-      </c>
-      <c r="T14" s="2" t="s">
-        <v>436</v>
-      </c>
-      <c r="U14" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>384</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="T14" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D15" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E15">
         <v>2021</v>
       </c>
       <c r="G15" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I15" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2882,166 +2775,157 @@
         <v>385</v>
       </c>
       <c r="P15" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="R15" t="s">
-        <v>373</v>
-      </c>
-      <c r="S15" t="s">
-        <v>387</v>
-      </c>
-      <c r="T15" s="2" t="s">
-        <v>437</v>
-      </c>
-      <c r="U15" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>385</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="T15" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E16">
         <v>2012</v>
       </c>
       <c r="G16" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H16" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I16" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="N16">
         <v>681</v>
       </c>
       <c r="O16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P16" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="Q16" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="R16" t="s">
-        <v>373</v>
-      </c>
-      <c r="S16" t="s">
-        <v>388</v>
-      </c>
-      <c r="T16" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="U16" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>386</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="T16" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D17" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E17">
         <v>2013</v>
       </c>
       <c r="G17" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H17" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J17" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K17">
         <v>2</v>
       </c>
       <c r="L17" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="N17">
         <v>2680</v>
       </c>
       <c r="O17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="P17" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="Q17" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="R17" t="s">
-        <v>373</v>
-      </c>
-      <c r="S17" t="s">
-        <v>389</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>439</v>
-      </c>
-      <c r="U17" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>387</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="T17" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E18">
         <v>2014</v>
       </c>
       <c r="G18" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I18" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -3053,51 +2937,48 @@
         <v>35</v>
       </c>
       <c r="P18" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="Q18" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="R18" t="s">
-        <v>373</v>
-      </c>
-      <c r="S18" t="s">
-        <v>390</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>440</v>
-      </c>
-      <c r="U18" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>388</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="T18" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E19">
         <v>2019</v>
       </c>
       <c r="F19" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K19">
         <v>67</v>
@@ -3115,51 +2996,48 @@
         <v>3211</v>
       </c>
       <c r="P19" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="Q19" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="R19" t="s">
-        <v>373</v>
-      </c>
-      <c r="S19" t="s">
-        <v>391</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>441</v>
-      </c>
-      <c r="U19" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>389</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>439</v>
+      </c>
+      <c r="T19" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E20">
         <v>2014</v>
       </c>
       <c r="F20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K20">
         <v>23</v>
@@ -3177,51 +3055,48 @@
         <v>921</v>
       </c>
       <c r="P20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q20" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="R20" t="s">
-        <v>373</v>
-      </c>
-      <c r="S20" t="s">
-        <v>392</v>
-      </c>
-      <c r="T20" s="2" t="s">
-        <v>442</v>
-      </c>
-      <c r="U20" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>390</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>440</v>
+      </c>
+      <c r="T20" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E21">
         <v>2021</v>
       </c>
       <c r="F21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G21" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H21" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I21" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K21">
         <v>6</v>
@@ -3230,7 +3105,7 @@
         <v>235</v>
       </c>
       <c r="M21" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="N21">
         <v>854</v>
@@ -3239,51 +3114,48 @@
         <v>870</v>
       </c>
       <c r="P21" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="R21" t="s">
-        <v>373</v>
-      </c>
-      <c r="S21" t="s">
-        <v>393</v>
-      </c>
-      <c r="T21" s="2" t="s">
-        <v>443</v>
-      </c>
-      <c r="U21" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>391</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="T21" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E22">
         <v>2016</v>
       </c>
       <c r="F22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="K22">
         <v>170</v>
@@ -3298,51 +3170,48 @@
         <v>203</v>
       </c>
       <c r="P22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="R22" t="s">
-        <v>373</v>
-      </c>
-      <c r="S22" t="s">
-        <v>394</v>
-      </c>
-      <c r="T22" s="2" t="s">
-        <v>444</v>
-      </c>
-      <c r="U22" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>392</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="T22" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23">
         <v>2020</v>
       </c>
       <c r="G23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H23" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I23" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="J23" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K23">
         <v>4</v>
@@ -3354,54 +3223,51 @@
         <v>1079</v>
       </c>
       <c r="P23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Q23" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="R23" t="s">
-        <v>373</v>
-      </c>
-      <c r="S23" t="s">
-        <v>395</v>
-      </c>
-      <c r="T23" s="2" t="s">
-        <v>445</v>
-      </c>
-      <c r="U23" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>393</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="T23" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24">
         <v>2021</v>
       </c>
       <c r="F24" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H24" t="s">
+        <v>229</v>
+      </c>
+      <c r="I24" t="s">
         <v>230</v>
       </c>
-      <c r="I24" t="s">
-        <v>231</v>
-      </c>
       <c r="J24" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="K24">
         <v>9</v>
@@ -3419,51 +3285,48 @@
         <v>1025</v>
       </c>
       <c r="P24" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="R24" t="s">
-        <v>373</v>
-      </c>
-      <c r="S24" t="s">
-        <v>396</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>446</v>
-      </c>
-      <c r="U24" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>394</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>444</v>
+      </c>
+      <c r="T24" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E25">
         <v>2016</v>
       </c>
       <c r="G25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I25" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="J25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -3475,48 +3338,45 @@
         <v>202</v>
       </c>
       <c r="P25" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="R25" t="s">
-        <v>373</v>
-      </c>
-      <c r="S25" t="s">
-        <v>397</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>447</v>
-      </c>
-      <c r="U25" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>395</v>
+      </c>
+      <c r="S25" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="T25" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C26" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D26" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E26">
         <v>2010</v>
       </c>
       <c r="G26" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H26" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K26">
         <v>36</v>
@@ -3534,48 +3394,45 @@
         <v>998</v>
       </c>
       <c r="P26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="R26" t="s">
-        <v>373</v>
-      </c>
-      <c r="S26" t="s">
-        <v>398</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="U26" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>396</v>
+      </c>
+      <c r="S26" s="2" t="s">
+        <v>446</v>
+      </c>
+      <c r="T26" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E27">
         <v>2016</v>
       </c>
       <c r="G27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K27">
         <v>5</v>
@@ -3593,48 +3450,45 @@
         <v>1361</v>
       </c>
       <c r="P27" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="R27" t="s">
-        <v>373</v>
-      </c>
-      <c r="S27" t="s">
-        <v>399</v>
-      </c>
-      <c r="T27" s="2" t="s">
-        <v>449</v>
-      </c>
-      <c r="U27" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>397</v>
+      </c>
+      <c r="S27" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="T27" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E28">
         <v>2014</v>
       </c>
       <c r="G28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J28" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -3646,51 +3500,48 @@
         <v>24</v>
       </c>
       <c r="P28" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="R28" t="s">
-        <v>373</v>
-      </c>
-      <c r="S28" t="s">
-        <v>400</v>
-      </c>
-      <c r="T28" s="2" t="s">
-        <v>450</v>
-      </c>
-      <c r="U28" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>398</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>448</v>
+      </c>
+      <c r="T28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D29" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="E29">
         <v>2015</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="K29">
         <v>15</v>
@@ -3708,51 +3559,48 @@
         <v>47</v>
       </c>
       <c r="P29" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q29" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="R29" t="s">
-        <v>373</v>
-      </c>
-      <c r="S29" t="s">
-        <v>401</v>
-      </c>
-      <c r="T29" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="U29" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>399</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="T29" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C30" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E30">
         <v>2019</v>
       </c>
       <c r="G30" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I30" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K30">
         <v>9</v>
@@ -3770,51 +3618,48 @@
         <v>377</v>
       </c>
       <c r="P30" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="Q30" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="R30" t="s">
-        <v>373</v>
-      </c>
-      <c r="S30" t="s">
-        <v>402</v>
-      </c>
-      <c r="T30" s="2" t="s">
-        <v>452</v>
-      </c>
-      <c r="U30" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>400</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="T30" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D31" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E31">
         <v>2017</v>
       </c>
       <c r="F31" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G31" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H31" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K31">
         <v>29</v>
@@ -3832,101 +3677,95 @@
         <v>749</v>
       </c>
       <c r="P31" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="Q31" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="R31" t="s">
-        <v>373</v>
-      </c>
-      <c r="S31" t="s">
-        <v>403</v>
-      </c>
-      <c r="T31" s="2" t="s">
-        <v>453</v>
-      </c>
-      <c r="U31" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>401</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="T31" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D32" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E32">
         <v>2021</v>
       </c>
       <c r="G32" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I32" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="K32">
         <v>0</v>
       </c>
       <c r="P32" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="Q32" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="R32" t="s">
-        <v>373</v>
-      </c>
-      <c r="S32" t="s">
-        <v>404</v>
-      </c>
-      <c r="T32" s="2" t="s">
-        <v>454</v>
-      </c>
-      <c r="U32" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>402</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="T32" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C33" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D33" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E33">
         <v>2012</v>
       </c>
       <c r="G33" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H33" t="s">
+        <v>229</v>
+      </c>
+      <c r="I33" t="s">
         <v>230</v>
       </c>
-      <c r="I33" t="s">
-        <v>231</v>
-      </c>
       <c r="J33" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K33">
         <v>32</v>
@@ -3941,51 +3780,48 @@
         <v>189</v>
       </c>
       <c r="P33" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="R33" t="s">
-        <v>373</v>
-      </c>
-      <c r="S33" t="s">
-        <v>405</v>
-      </c>
-      <c r="T33" s="2" t="s">
-        <v>455</v>
-      </c>
-      <c r="U33" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>403</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="T33" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D34" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E34">
         <v>2014</v>
       </c>
       <c r="G34" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H34" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I34" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J34" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="K34">
         <v>25</v>
@@ -3997,51 +3833,48 @@
         <v>183</v>
       </c>
       <c r="P34" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="R34" t="s">
-        <v>373</v>
-      </c>
-      <c r="S34" t="s">
-        <v>406</v>
-      </c>
-      <c r="T34" s="2" t="s">
-        <v>456</v>
-      </c>
-      <c r="U34" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>404</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="T34" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E35">
         <v>2015</v>
       </c>
       <c r="G35" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I35" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J35" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K35">
         <v>19</v>
@@ -4053,48 +3886,45 @@
         <v>187</v>
       </c>
       <c r="Q35" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R35" t="s">
-        <v>373</v>
-      </c>
-      <c r="S35" t="s">
-        <v>407</v>
-      </c>
-      <c r="T35" s="2" t="s">
-        <v>457</v>
-      </c>
-      <c r="U35" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>405</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="T35" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D36" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E36">
         <v>2009</v>
       </c>
       <c r="G36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I36" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="J36" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K36">
         <v>13</v>
@@ -4106,48 +3936,45 @@
         <v>61</v>
       </c>
       <c r="Q36" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R36" t="s">
-        <v>373</v>
-      </c>
-      <c r="S36" t="s">
-        <v>408</v>
-      </c>
-      <c r="T36" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="U36" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>406</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="T36" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D37" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E37">
         <v>2015</v>
       </c>
       <c r="G37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I37" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="J37" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="K37">
         <v>1</v>
@@ -4159,98 +3986,92 @@
         <v>33</v>
       </c>
       <c r="P37" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="Q37" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="R37" t="s">
-        <v>373</v>
-      </c>
-      <c r="S37" t="s">
-        <v>409</v>
-      </c>
-      <c r="T37" s="2" t="s">
-        <v>459</v>
-      </c>
-      <c r="U37" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>407</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="T37" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C38" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E38">
         <v>2018</v>
       </c>
       <c r="G38" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I38" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K38">
         <v>7</v>
       </c>
       <c r="Q38" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R38" t="s">
-        <v>373</v>
-      </c>
-      <c r="S38" t="s">
-        <v>410</v>
-      </c>
-      <c r="T38" s="2" t="s">
-        <v>460</v>
-      </c>
-      <c r="U38" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="T38" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C39" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D39" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E39">
         <v>2011</v>
       </c>
       <c r="F39" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K39">
         <v>283</v>
@@ -4268,51 +4089,48 @@
         <v>1467</v>
       </c>
       <c r="P39" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="Q39" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="R39" t="s">
-        <v>373</v>
-      </c>
-      <c r="S39" t="s">
-        <v>411</v>
-      </c>
-      <c r="T39" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="U39" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>409</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="T39" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D40" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E40">
         <v>2022</v>
       </c>
       <c r="F40" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G40" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K40">
         <v>10</v>
@@ -4330,48 +4148,45 @@
         <v>4185</v>
       </c>
       <c r="P40" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="Q40" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="R40" t="s">
-        <v>373</v>
-      </c>
-      <c r="S40" t="s">
-        <v>412</v>
-      </c>
-      <c r="T40" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="U40" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>410</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="T40" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D41" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E41">
         <v>2009</v>
       </c>
       <c r="G41" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H41" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I41" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="K41">
         <v>102</v>
@@ -4389,51 +4204,48 @@
         <v>1048</v>
       </c>
       <c r="P41" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="Q41" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="R41" t="s">
-        <v>373</v>
-      </c>
-      <c r="S41" t="s">
-        <v>413</v>
-      </c>
-      <c r="T41" s="2" t="s">
-        <v>463</v>
-      </c>
-      <c r="U41" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>411</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="T41" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C42" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D42" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E42">
         <v>2022</v>
       </c>
       <c r="F42" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G42" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I42" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="K42">
         <v>2</v>
@@ -4451,51 +4263,48 @@
         <v>517</v>
       </c>
       <c r="P42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="R42" t="s">
-        <v>373</v>
-      </c>
-      <c r="S42" t="s">
-        <v>414</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>464</v>
-      </c>
-      <c r="U42" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>412</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="T42" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C43" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D43" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E43">
         <v>2020</v>
       </c>
       <c r="G43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H43" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J43" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K43">
         <v>2</v>
@@ -4507,51 +4316,48 @@
         <v>192</v>
       </c>
       <c r="P43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="Q43" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="R43" t="s">
-        <v>373</v>
-      </c>
-      <c r="S43" t="s">
-        <v>415</v>
-      </c>
-      <c r="T43" s="2" t="s">
-        <v>465</v>
-      </c>
-      <c r="U43" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>413</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>463</v>
+      </c>
+      <c r="T43" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D44" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E44">
         <v>2010</v>
       </c>
       <c r="G44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H44" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I44" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J44" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -4563,48 +4369,45 @@
         <v>1497</v>
       </c>
       <c r="Q44" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R44" t="s">
-        <v>373</v>
-      </c>
-      <c r="S44" t="s">
-        <v>416</v>
-      </c>
-      <c r="T44" s="2" t="s">
-        <v>466</v>
-      </c>
-      <c r="U44" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>414</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>464</v>
+      </c>
+      <c r="T44" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C45" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E45">
         <v>2022</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G45" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H45" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I45" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K45">
         <v>8</v>
@@ -4616,51 +4419,48 @@
         <v>10</v>
       </c>
       <c r="P45" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="Q45" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="R45" t="s">
-        <v>373</v>
-      </c>
-      <c r="S45" t="s">
-        <v>417</v>
-      </c>
-      <c r="T45" s="2" t="s">
-        <v>467</v>
-      </c>
-      <c r="U45" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>415</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="T45" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C46" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D46" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E46">
         <v>2023</v>
       </c>
       <c r="F46" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G46" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H46" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -4678,51 +4478,48 @@
         <v>1422</v>
       </c>
       <c r="P46" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="Q46" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="R46" t="s">
-        <v>373</v>
-      </c>
-      <c r="S46" t="s">
-        <v>418</v>
-      </c>
-      <c r="T46" s="2" t="s">
-        <v>468</v>
-      </c>
-      <c r="U46" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>416</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>466</v>
+      </c>
+      <c r="T46" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C47" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D47" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E47">
         <v>2018</v>
       </c>
       <c r="G47" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H47" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="J47" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K47">
         <v>38</v>
@@ -4734,48 +4531,45 @@
         <v>5188</v>
       </c>
       <c r="Q47" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R47" t="s">
-        <v>373</v>
-      </c>
-      <c r="S47" t="s">
-        <v>419</v>
-      </c>
-      <c r="T47" s="2" t="s">
-        <v>469</v>
-      </c>
-      <c r="U47" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>417</v>
+      </c>
+      <c r="S47" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="T47" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C48" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D48" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E48">
         <v>2020</v>
       </c>
       <c r="F48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G48" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I48" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K48">
         <v>1</v>
@@ -4787,51 +4581,48 @@
         <v>5</v>
       </c>
       <c r="P48" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="Q48" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="R48" t="s">
-        <v>373</v>
-      </c>
-      <c r="S48" t="s">
-        <v>420</v>
-      </c>
-      <c r="T48" s="2" t="s">
-        <v>470</v>
-      </c>
-      <c r="U48" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>418</v>
+      </c>
+      <c r="S48" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="T48" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E49">
         <v>2013</v>
       </c>
       <c r="G49" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H49" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I49" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="J49" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K49">
         <v>72</v>
@@ -4843,48 +4634,45 @@
         <v>5939</v>
       </c>
       <c r="Q49" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="R49" t="s">
-        <v>373</v>
-      </c>
-      <c r="S49" t="s">
-        <v>421</v>
-      </c>
-      <c r="T49" s="2" t="s">
-        <v>471</v>
-      </c>
-      <c r="U49" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>419</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>469</v>
+      </c>
+      <c r="T49" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C50" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E50">
         <v>2015</v>
       </c>
       <c r="F50" t="s">
+        <v>224</v>
+      </c>
+      <c r="G50" t="s">
         <v>225</v>
       </c>
-      <c r="G50" t="s">
-        <v>226</v>
-      </c>
       <c r="H50" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="K50">
         <v>6</v>
@@ -4902,48 +4690,45 @@
         <v>1426</v>
       </c>
       <c r="P50" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="Q50" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="R50" t="s">
-        <v>373</v>
-      </c>
-      <c r="S50" t="s">
-        <v>422</v>
-      </c>
-      <c r="T50" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="U50" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" ht="15" x14ac:dyDescent="0.3">
+        <v>420</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="T50" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D51" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E51">
         <v>2017</v>
       </c>
       <c r="G51" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H51" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I51" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="K51">
         <v>10</v>
@@ -4961,127 +4746,123 @@
         <v>507</v>
       </c>
       <c r="P51" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="Q51" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="R51" t="s">
-        <v>373</v>
-      </c>
-      <c r="S51" t="s">
-        <v>423</v>
-      </c>
-      <c r="T51" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="U51" t="s">
-        <v>523</v>
+        <v>421</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>471</v>
+      </c>
+      <c r="T51" t="s">
+        <v>521</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="Q2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="T2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="Q3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="T3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="Q4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="T4" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="Q5" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="T5" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="Q6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="T6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="Q7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="T7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="Q8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="T8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="Q9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="T9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="Q10" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="T10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="Q11" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="T11" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="Q12" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="T12" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="Q13" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="T13" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="Q14" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="T14" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="Q15" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="T15" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="Q16" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="T16" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="Q17" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="T17" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="Q18" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="T18" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="Q19" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="T19" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="Q20" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="T20" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="Q21" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="T21" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="Q22" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="T22" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="Q23" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="T23" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="Q24" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="T24" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="Q25" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="T25" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="Q26" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="T26" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="Q27" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="T27" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="Q28" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="T28" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="Q29" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="T29" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="Q30" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="T30" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="Q31" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="T31" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="Q32" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="T32" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="Q33" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="T33" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="Q34" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="T34" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="Q35" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="T35" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="Q36" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="T36" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="Q37" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="T37" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="Q38" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="T38" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="Q39" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="T39" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="Q40" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="T40" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="Q41" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="T41" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="Q42" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="T42" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="Q43" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="T43" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="Q44" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="T44" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="Q45" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="T45" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
-    <hyperlink ref="Q46" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
-    <hyperlink ref="T46" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
-    <hyperlink ref="Q47" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
-    <hyperlink ref="T47" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
-    <hyperlink ref="Q48" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
-    <hyperlink ref="T48" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
-    <hyperlink ref="Q49" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
-    <hyperlink ref="T49" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
-    <hyperlink ref="Q50" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
-    <hyperlink ref="T50" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
-    <hyperlink ref="Q51" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
-    <hyperlink ref="T51" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="Q2" r:id="rId1"/>
+    <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="Q4" r:id="rId5"/>
+    <hyperlink ref="S4" r:id="rId6"/>
+    <hyperlink ref="Q5" r:id="rId7"/>
+    <hyperlink ref="S5" r:id="rId8"/>
+    <hyperlink ref="Q6" r:id="rId9"/>
+    <hyperlink ref="S6" r:id="rId10"/>
+    <hyperlink ref="Q7" r:id="rId11"/>
+    <hyperlink ref="S7" r:id="rId12"/>
+    <hyperlink ref="Q8" r:id="rId13"/>
+    <hyperlink ref="S8" r:id="rId14"/>
+    <hyperlink ref="Q9" r:id="rId15"/>
+    <hyperlink ref="S9" r:id="rId16"/>
+    <hyperlink ref="Q10" r:id="rId17"/>
+    <hyperlink ref="S10" r:id="rId18"/>
+    <hyperlink ref="Q11" r:id="rId19"/>
+    <hyperlink ref="S11" r:id="rId20"/>
+    <hyperlink ref="Q12" r:id="rId21"/>
+    <hyperlink ref="S12" r:id="rId22"/>
+    <hyperlink ref="Q13" r:id="rId23"/>
+    <hyperlink ref="S13" r:id="rId24"/>
+    <hyperlink ref="Q14" r:id="rId25"/>
+    <hyperlink ref="S14" r:id="rId26"/>
+    <hyperlink ref="Q15" r:id="rId27"/>
+    <hyperlink ref="S15" r:id="rId28"/>
+    <hyperlink ref="Q16" r:id="rId29"/>
+    <hyperlink ref="S16" r:id="rId30"/>
+    <hyperlink ref="Q17" r:id="rId31"/>
+    <hyperlink ref="S17" r:id="rId32"/>
+    <hyperlink ref="Q18" r:id="rId33"/>
+    <hyperlink ref="S18" r:id="rId34"/>
+    <hyperlink ref="Q19" r:id="rId35"/>
+    <hyperlink ref="S19" r:id="rId36"/>
+    <hyperlink ref="Q20" r:id="rId37"/>
+    <hyperlink ref="S20" r:id="rId38"/>
+    <hyperlink ref="Q21" r:id="rId39"/>
+    <hyperlink ref="S21" r:id="rId40"/>
+    <hyperlink ref="Q22" r:id="rId41"/>
+    <hyperlink ref="S22" r:id="rId42"/>
+    <hyperlink ref="Q23" r:id="rId43"/>
+    <hyperlink ref="S23" r:id="rId44"/>
+    <hyperlink ref="Q24" r:id="rId45"/>
+    <hyperlink ref="S24" r:id="rId46"/>
+    <hyperlink ref="Q25" r:id="rId47"/>
+    <hyperlink ref="S25" r:id="rId48"/>
+    <hyperlink ref="Q26" r:id="rId49"/>
+    <hyperlink ref="S26" r:id="rId50"/>
+    <hyperlink ref="Q27" r:id="rId51"/>
+    <hyperlink ref="S27" r:id="rId52"/>
+    <hyperlink ref="Q28" r:id="rId53"/>
+    <hyperlink ref="S28" r:id="rId54"/>
+    <hyperlink ref="Q29" r:id="rId55"/>
+    <hyperlink ref="S29" r:id="rId56"/>
+    <hyperlink ref="Q30" r:id="rId57"/>
+    <hyperlink ref="S30" r:id="rId58"/>
+    <hyperlink ref="Q31" r:id="rId59"/>
+    <hyperlink ref="S31" r:id="rId60"/>
+    <hyperlink ref="Q32" r:id="rId61"/>
+    <hyperlink ref="S32" r:id="rId62"/>
+    <hyperlink ref="Q33" r:id="rId63"/>
+    <hyperlink ref="S33" r:id="rId64"/>
+    <hyperlink ref="Q34" r:id="rId65"/>
+    <hyperlink ref="S34" r:id="rId66"/>
+    <hyperlink ref="Q35" r:id="rId67"/>
+    <hyperlink ref="S35" r:id="rId68"/>
+    <hyperlink ref="Q36" r:id="rId69"/>
+    <hyperlink ref="S36" r:id="rId70"/>
+    <hyperlink ref="Q37" r:id="rId71"/>
+    <hyperlink ref="S37" r:id="rId72"/>
+    <hyperlink ref="Q38" r:id="rId73"/>
+    <hyperlink ref="S38" r:id="rId74"/>
+    <hyperlink ref="Q39" r:id="rId75"/>
+    <hyperlink ref="S39" r:id="rId76"/>
+    <hyperlink ref="Q40" r:id="rId77"/>
+    <hyperlink ref="S40" r:id="rId78"/>
+    <hyperlink ref="Q41" r:id="rId79"/>
+    <hyperlink ref="S41" r:id="rId80"/>
+    <hyperlink ref="Q42" r:id="rId81"/>
+    <hyperlink ref="S42" r:id="rId82"/>
+    <hyperlink ref="Q43" r:id="rId83"/>
+    <hyperlink ref="S43" r:id="rId84"/>
+    <hyperlink ref="Q44" r:id="rId85"/>
+    <hyperlink ref="S44" r:id="rId86"/>
+    <hyperlink ref="Q45" r:id="rId87"/>
+    <hyperlink ref="S45" r:id="rId88"/>
+    <hyperlink ref="Q46" r:id="rId89"/>
+    <hyperlink ref="S46" r:id="rId90"/>
+    <hyperlink ref="Q47" r:id="rId91"/>
+    <hyperlink ref="S47" r:id="rId92"/>
+    <hyperlink ref="Q48" r:id="rId93"/>
+    <hyperlink ref="S48" r:id="rId94"/>
+    <hyperlink ref="Q49" r:id="rId95"/>
+    <hyperlink ref="S49" r:id="rId96"/>
+    <hyperlink ref="Q50" r:id="rId97"/>
+    <hyperlink ref="S50" r:id="rId98"/>
+    <hyperlink ref="Q51" r:id="rId99"/>
+    <hyperlink ref="S51" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/02-WOS导出信息处理/WOS信息过滤后.xlsx
+++ b/02-WOS导出信息处理/WOS信息过滤后.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="176">
   <si>
     <t>文献标题</t>
   </si>
@@ -76,43 +76,472 @@
     <t>摘要</t>
   </si>
   <si>
-    <t>CCP-federated deep learning based on user trust chain in social IoV</t>
-  </si>
-  <si>
-    <t>Zhao, PC; Huang, YH; Zhang, DX; Xing, L; Wu, HH; Gao, JP</t>
-  </si>
-  <si>
-    <t>Zhao, Peng-Cheng; Huang, Yuan-Hao; Zhang, De-Xin; Xing, Ling; Wu, Hong-Hai; Gao, Jian-Ping</t>
-  </si>
-  <si>
-    <t>Xing, L (corresponding author), Henan Univ Sci &amp; Technol Sci, Coll Informat Engn, Luoyang 471023, Peoples R China.</t>
+    <t>Research on Automatic Vertical Parking Path-Planning Algorithms for Narrow Parking Spaces</t>
+  </si>
+  <si>
+    <t>Car-following Security Situation Estimation Based on Multi-source Information Fusion</t>
+  </si>
+  <si>
+    <t>Federated Learning-Based Collaborative Authentication Protocol for Shared Data in Social IoV</t>
+  </si>
+  <si>
+    <t>A Location Privacy Protection Algorithm Based on Double K-Anonymity in the Social Internet of Vehicles</t>
+  </si>
+  <si>
+    <t>Emergency obstacle avoidance system of driverless vehicle based on model predictive control</t>
+  </si>
+  <si>
+    <t>Behavioral Habits-Based User Identification Across Social Networks</t>
+  </si>
+  <si>
+    <t>A Survey of Location Privacy Preservation in Social Internet of Vehicles</t>
+  </si>
+  <si>
+    <t>A Survey of the Social Internet of Vehicles: Secure Data Issues, Solutions, and Federated Learning</t>
+  </si>
+  <si>
+    <t>Location Entropy-Based Privacy Protection Algorithm for Social Internet of Vehicles</t>
+  </si>
+  <si>
+    <t>An Optimized Algorithm for Protecting Privacy Based on Coordinates Mean Value for Cognitive Radio Networks</t>
+  </si>
+  <si>
+    <t>The Power Allocation Strategy for PHEV with Hybrid Power System based on Four-factor-method</t>
+  </si>
+  <si>
+    <t>Estimation of Transmission Input&amp;Output Shaft Torque and Drive Wheel Speed for Compound Power Split Powertrain Based on Unknown Input Observer</t>
+  </si>
+  <si>
+    <t>Real-time Adaptive State of Energy Estimation of Lithium-ion Batteries Applied in Electric Vehicles</t>
+  </si>
+  <si>
+    <t>A Real-Time Joint Estimator for Model Parameters and State of Charge of Lithium-Ion Batteries in Electric Vehicles</t>
+  </si>
+  <si>
+    <t>Comparison of Nonlinear Filtering Methods for Estimating the State of Charge of Li4Ti5O12 Lithium-Ion Battery</t>
+  </si>
+  <si>
+    <t>Wu, YF; Li, X; Gao, JP; Yang, XL</t>
+  </si>
+  <si>
+    <t>Gao, JP; Xu, ZH; Sun, JH; Xi, JG</t>
+  </si>
+  <si>
+    <t>Zhao, PC; Huang, YH; Gao, JP; Xing, L; Wu, HH; Ma, HH</t>
+  </si>
+  <si>
+    <t>Xing, L; Jia, XF; Gao, JP; Wu, HH</t>
+  </si>
+  <si>
+    <t>Xie, ZX; Wu, YF; Gao, JP; Song, CJ; Chai, WJ; Xi, JG</t>
+  </si>
+  <si>
+    <t>Xing, L; Deng, KK; Wu, HH; Xie, P; Gao, JP</t>
+  </si>
+  <si>
+    <t>Jia, XF; Xing, L; Gao, JP; Wu, HH</t>
+  </si>
+  <si>
+    <t>Xing, L; Zhao, PC; Gao, JP; Wu, HH; Ma, HH</t>
+  </si>
+  <si>
+    <t>Xing, L; Huang, YH; Gao, JP; Jia, XF; Wu, HH; Ma, HH</t>
+  </si>
+  <si>
+    <t>Xing, L; Ma, Q; Gao, JP; Chen, S</t>
+  </si>
+  <si>
+    <t>Li, GP; Gao, JP; Zhao, JB</t>
+  </si>
+  <si>
+    <t>Li, MN; Zhao, ZG; Fan, JQ; Gao, JP</t>
+  </si>
+  <si>
+    <t>Gao, JP; He, HW; Zhang, XW; Xing, L</t>
+  </si>
+  <si>
+    <t>Gao, JP; Zhang, YZ; He, HW</t>
+  </si>
+  <si>
+    <t>Gao, JP; He, HW</t>
+  </si>
+  <si>
+    <t>Wu, Yanfeng; Li, Xuan; Gao, Jianping; Yang, Xinling</t>
+  </si>
+  <si>
+    <t>Gao, Jianping; Xu, Zhenhai; Sun, Jiahui; Xi, Jianguo</t>
+  </si>
+  <si>
+    <t>Zhao, Pengcheng; Huang, Yuanhao; Gao, Jianping; Xing, Ling; Wu, Honghai; Ma, Huahong</t>
+  </si>
+  <si>
+    <t>Xing, Ling; Jia, Xiaofan; Gao, Jianping; Wu, Honghai</t>
+  </si>
+  <si>
+    <t>Xie, Zhaoxi; Wu, Yanfeng; Gao, Jianping; Song, Chuanjie; Chai, Wenjian; Xi, Jianguo</t>
+  </si>
+  <si>
+    <t>Xing, Ling; Deng, Kaikai; Wu, Honghai; Xie, Ping; Gao, Jianping</t>
+  </si>
+  <si>
+    <t>Jia, Xiaofan; Xing, Ling; Gao, Jianping; Wu, Honghai</t>
+  </si>
+  <si>
+    <t>Xing, Ling; Zhao, Pengcheng; Gao, Jianping; Wu, Honghai; Ma, Huahong</t>
+  </si>
+  <si>
+    <t>Xing, Ling; Huang, Yuanhao; Gao, Jianping; Jia, Xiaofan; Wu, Honghai; Ma, Huahong</t>
+  </si>
+  <si>
+    <t>Xing, Ling; Ma, Qiang; Gao, Jianping; Chen, Song</t>
+  </si>
+  <si>
+    <t>Li Gaopeng; Gao Jianping; Zhao Jinbao</t>
+  </si>
+  <si>
+    <t>Li, Mengna; Zhao, Zhiguo; Fan, Jiaqi; Gao, Jianping</t>
+  </si>
+  <si>
+    <t>Gao, Jianping; He, Hongwen; Zhang, Xiaowei; Xing, Ling</t>
+  </si>
+  <si>
+    <t>Gao, Jianping; Zhang, Yongzhi; He, Hongwen</t>
+  </si>
+  <si>
+    <t>Gao, Jianping; He, Hongwen</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Coll Vehicle &amp; Transportat Engn, Luoyang 471003, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Vehicle &amp; Transportat Engn Inst, Luoyang 471003, Peoples R China.;Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Collaborat Innovat Ctr Machinery Equipment Adv Mf, Luoyang 471003, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Coll Vehicle &amp; Traff Engn, Luoyang 471003, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Xing, L (通讯作者)，Henan Univ Sci &amp; Technol, Sch Informat Engn, Luoyang 471023, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Wu, YF (通讯作者)，Henan Univ Sci &amp; Technol, Coll Vehicle &amp; Transportat Engn, 48 Xiyuan Rd, Luoyang 471003, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Sch Vehicle &amp; Traff Engn, Luoyang 471023, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Coll Vehicle &amp; Traff Engn, Luoyang 471000, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Coll Vehicle &amp; Traff Engn, Luoyang, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Li, GP (通讯作者)，Zhengzhou Yutong Bus Co Ltd, Natl Res Ctr Elect Control &amp; Safety Engn Technol, Zhengzhou, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Zhao, ZG (通讯作者)，Tongji Univ, Sch Automot Studies, Shanghai 201804, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Gao, JP (通讯作者)，Henan Univ Sci &amp; Technol, Sch Vehicle &amp; Transportat Engn, Luoyang 471003, Peoples R China.</t>
+  </si>
+  <si>
+    <t>Zhang, YZ (通讯作者)，Beijing Inst Technol, Sch Mech Engn, Natl Engn Lab Elect Vehicles, Beijing 100081, Peoples R China.</t>
+  </si>
+  <si>
+    <t>He, HW (通讯作者)，Beijing Inst Technol, Sch Mech Engn, Natl Engn Lab Elect Vehicles, Beijing 100081, Peoples R China.</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>04-01</t>
+  </si>
+  <si>
+    <t>09</t>
+  </si>
+  <si>
+    <t>03-04</t>
+  </si>
+  <si>
+    <t>06</t>
   </si>
   <si>
     <t>05</t>
   </si>
   <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>J</t>
   </si>
   <si>
+    <t>C</t>
+  </si>
+  <si>
     <t>Article</t>
   </si>
   <si>
-    <t>WIRELESS NETWORKS</t>
-  </si>
-  <si>
-    <t>10.1007/s11276-021-02870-1</t>
-  </si>
-  <si>
-    <t>http://dx.doi.org/10.1007/s11276-021-02870-1</t>
-  </si>
-  <si>
-    <t>WOS:000738496200001</t>
-  </si>
-  <si>
-    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000738496200001</t>
-  </si>
-  <si>
-    <t>Federated learning is widely used in the context of wireless networks to protect sensitive user data. However, centralized federated learning encounters some issues when applied to the Social Internet of Vehicles, specifically low communication efficiency and high computational cost. In order to alleviate communication bottlenecks and protect vehicle user data privacy, we herein propose the Conditional Choice Probability-Federated Deep Learning algorithm based on user trust chain. This algorithm introduces inter-user trust elements to characterize the vehicle connection network from a vehicle-user relationship perspective. It computes the node conditional choice trust probability based on the single-way trust atomic chain and circular chain of user nodes. Local model interactions are then performed to complete the decentralized federated deep learning framework. Experiments are conducted to verify the robustness of the proposed algorithm's conditional choice probability estimation and confirm that decentralized federated deep learning is effective.</t>
+    <t>Proceedings Paper</t>
+  </si>
+  <si>
+    <t>ELECTRONICS</t>
+  </si>
+  <si>
+    <t>JOINT INTERNATIONAL CONFERENCE ON ENERGY, ECOLOGY AND ENVIRONMENT ICEEE 2018 AND ELECTRIC AND INTELLIGENT VEHICLES ICEIV 2018</t>
+  </si>
+  <si>
+    <t>IEEE SENSORS JOURNAL</t>
+  </si>
+  <si>
+    <t>IEEE COMMUNICATIONS LETTERS</t>
+  </si>
+  <si>
+    <t>2021 INTERNATIONAL CONFERENCE ON ADVANCED MECHATRONIC SYSTEMS (ICAMECHS)</t>
+  </si>
+  <si>
+    <t>SYMMETRY-BASEL</t>
+  </si>
+  <si>
+    <t>IEEE ACCESS</t>
+  </si>
+  <si>
+    <t>IEEE INTELLIGENT TRANSPORTATION SYSTEMS MAGAZINE</t>
+  </si>
+  <si>
+    <t>WIRELESS PERSONAL COMMUNICATIONS</t>
+  </si>
+  <si>
+    <t>2015 7TH INTERNATIONAL CONFERENCE ON INTELLIGENT HUMAN-MACHINE SYSTEMS AND CYBERNETICS IHMSC 2015, VOL II</t>
+  </si>
+  <si>
+    <t>IEEE TRANSACTIONS ON VEHICULAR TECHNOLOGY</t>
+  </si>
+  <si>
+    <t>ENERGIES</t>
+  </si>
+  <si>
+    <t>MATHEMATICAL PROBLEMS IN ENGINEERING</t>
+  </si>
+  <si>
+    <t>International Conference on Energy, Ecology and Environment (ICEEE) / International Conference on Electric and Intelligent Vehicles (ICEIV)</t>
+  </si>
+  <si>
+    <t>International Conference on Advanced Mechatronic Systems (ICAMechS)</t>
+  </si>
+  <si>
+    <t>7th International Conference on Intelligent Human-Machine Systems and Cybernetics (IHMSC)</t>
+  </si>
+  <si>
+    <t>10.3390/electronics12204203</t>
+  </si>
+  <si>
+    <t>10.1109/JSEN.2022.3153338</t>
+  </si>
+  <si>
+    <t>10.1109/LCOMM.2021.3072671</t>
+  </si>
+  <si>
+    <t>10.1109/ICAMechS54019.2021.9661515</t>
+  </si>
+  <si>
+    <t>10.3390/sym11091134</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2020.3036044</t>
+  </si>
+  <si>
+    <t>10.1109/MITS.2022.3190036</t>
+  </si>
+  <si>
+    <t>10.1007/s11277-023-10413-4</t>
+  </si>
+  <si>
+    <t>10.1109/ACCESS.2018.2822839</t>
+  </si>
+  <si>
+    <t>10.1109/IHMSC.2015.109</t>
+  </si>
+  <si>
+    <t>10.1109/TVT.2020.2975085</t>
+  </si>
+  <si>
+    <t>10.3390/en8088594</t>
+  </si>
+  <si>
+    <t>10.1155/2015/485216</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.3390/electronics12204203</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/JSEN.2022.3153338</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/LCOMM.2021.3072671</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/ICAMechS54019.2021.9661515</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.3390/sym11091134</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/ACCESS.2020.3036044</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/MITS.2022.3190036</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1007/s11277-023-10413-4</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/ACCESS.2018.2822839</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/IHMSC.2015.109</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1109/TVT.2020.2975085</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.3390/en8088594</t>
+  </si>
+  <si>
+    <t>http://dx.doi.org/10.1155/2015/485216</t>
+  </si>
+  <si>
+    <t>WOS:001119448100001</t>
+  </si>
+  <si>
+    <t>WOS:000468631900071</t>
+  </si>
+  <si>
+    <t>WOS:000792967000122</t>
+  </si>
+  <si>
+    <t>WOS:000704824300014</t>
+  </si>
+  <si>
+    <t>WOS:000788327800005</t>
+  </si>
+  <si>
+    <t>WOS:000489177900070</t>
+  </si>
+  <si>
+    <t>WOS:000589731000001</t>
+  </si>
+  <si>
+    <t>WOS:000836682500001</t>
+  </si>
+  <si>
+    <t>WOS:000962319600006</t>
+  </si>
+  <si>
+    <t>WOS:000431962500001</t>
+  </si>
+  <si>
+    <t>WOS:000380609600163</t>
+  </si>
+  <si>
+    <t>WOS:000558743700022</t>
+  </si>
+  <si>
+    <t>WOS:000468631900091</t>
+  </si>
+  <si>
+    <t>WOS:000360586600058</t>
+  </si>
+  <si>
+    <t>WOS:000364048300001</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:001119448100001</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000468631900071</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000792967000122</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000704824300014</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000788327800005</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000489177900070</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000589731000001</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000836682500001</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000962319600006</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000431962500001</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000380609600163</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000558743700022</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000468631900091</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000360586600058</t>
+  </si>
+  <si>
+    <t>https://webofscience.clarivate.cn/wos/woscc/full-record/WOS:000364048300001</t>
+  </si>
+  <si>
+    <t>Narrow parking spaces pose difficulties in path planning and spot turning caused by sudden changes and discontinuities in path curvature. To address these problems, this paper investigates the performance of three path-planning algorithms and proposes a path-optimization algorithm. First, a narrow parking space is defined based on single-step parking using the arc-line combination parking algorithm. Second, to compare the arc-line combination algorithm, Hybrid A* algorithm, and particle swarm optimization parking algorithm with respect to different narrow parking spaces, a multi-objective evaluation function is proposed, including three evaluation indicators, namely, the path length, the number of positive and negative conversions of vehicle speed, and the smoothness of the path. Their performance is compared using a simulation conducted in MATLAB. With the same starting point and different parking space widths, the three algorithms are simulated to generate different planned paths. Then, the evaluation indices are obtained to compare the performance of the algorithms based on the multi-objective function, the values of which indicate the fitness of the algorithm in a narrow parking environment. The results show that the Hybrid A* algorithm is better than the others for narrow parking spaces. Third, to smooth the planning path, a path optimization algorithm based on the cubic B-spline curve and gradient descent is proposed. Finally, the results of a simulation conducted on the proposed algorithm and the Hybrid A* algorithm are provided: the average minimum curvature of the path was reduced by 0.005 m-1, and the path meets the requirements of the minimum turning radius constraint of the analyzed vehicle. The results show that the proposed algorithm can effectively eliminate the curvature mutation point and constrain the path curvature to meet the requirements of a smooth path.</t>
+  </si>
+  <si>
+    <t>For intelligent and connected vehicles, analyzing driving scenarios to estimate security situation is the primary premise to ensure vehicles safety, especially in car-following scenario. In this paper, an approach for car-following security situation estimation is proposed based on multi-source information fusion, which uses fuzzy inference system as the estimation framework. By analyzing the driver's diversified driving behaviors in longitudinal direction and dynamic inter-vehicle motion characteristics, the desired acceleration, HWT and TTC-1 are selected to evaluate the security situation-under the current running state. In order to make the security situation evaluation results more accurate and rational, a car-following scenario database is built by PreScan software, and a data-driven analysis method and MOS are employed to determine the membership function of each variable. Finally, through simulation experiment, the RMSE of the approach, proposed in this paper, is 0.0813, compared with MOS, and the security situation evaluation approach is verified.</t>
+  </si>
+  <si>
+    <t>In the Social Internet of Vehicles (SIoV), federated learning is able to significantly protect the private data of the vehicle's client, while reducing the transmission load between entities. Nevertheless, data can still be stolen by an adversary who analyzes the parameters uploaded by the client to steal it. In this paper, to effectively prevent data leakage and reduce the propagation delay of data, we design a federated learning collaborative authentication protocol for shared data. The parameters of the vehicle client model are encrypted by the protocol in the federated learning. The vehicle and other entities of the protocol realize efficient anonymous mutual authentication and key agreement. The security of the proposed protocol is proved in the stochastic predictive machine model. The simulation results on the SUMO and OMNeT++ platforms show that the authentication delay is the lowest compared to other protocols and the packet loss rate is reduced to 4.68%. Moreover, the overfitting of the globally aggregated model is effectively resolved.</t>
+  </si>
+  <si>
+    <t>As an emerging complex social network, the Social Internet of Vehicles (SIoV) potentially exposes user location privacy. In this letter, we propose a location privacy protection method based on double k-anonymity that hides user locations and request information. The cloud server is introduced as a trusted third party to isolate the direct communication between users and the service provider, while correlation between identities and requests is also reduced by means of a permutation and combination method. Extensive simulations are conducted to demonstrate that the method can protect user location privacy to the greatest extent possible while still ensuring service availability.</t>
+  </si>
+  <si>
+    <t>To improve the robustness of the emergency obstacle avoidance strategy of unmanned vehicles and reduce road traffic accidents, this paper proposes a bi-level model predictive control (MPC) for the vehicle trajectory replanning and path tracking based on obstacle avoidance function. A nonlinear MPC path planner and a linear time-varying MPC trajectory trackers are designed. The proposed approach was simulated with CarSim and MATLAB/Simulink The simulation results show that the proposed emergency obstacle avoidance control strategy has good adaptability to low, medium and high-speed vehicles, and the vehicles can avoid obstacles stably and achieve the desired trajectory tracking, which verifies the effectiveness of the proposal.</t>
+  </si>
+  <si>
+    <t>Social networking is an interactive Internet of Things. The symmetry of the network can reflect the similar friendships of users on different social networks. A user's behavior habits are not easy to change, and users usually have the same or similar display names and published contents among multiple social networks. Therefore, the symmetry concept can be used to analyze the information generated by the user for user identification. User identification plays a key role in building better information about social network user profiles. As a consequence, it has very important practical significance in many network applications and has attracted a great deal of attention from researchers. However, existing works are primarily focused on rich network data and ignore the difficulty involved in data acquisition. Display names and user-published content are very easy to obtain compared to other types of user data across different social networks. Therefore, this paper proposes an across social networks user identification method based on user behavior habits (ANIUBH). We analyzed the user's personalized naming habits in terms of display names, then utilized different similarity calculation methods to measure the similarity of the features contained in the display names. The variant entropy value was adopted to assign weights to the features mentioned above. In addition, we also measured and analyzed the user's interest graph to further improve user identification performance. Finally, we combined one-to-one constraint with the Gale-Shapley algorithm to eliminate the one-to-many and many-to-many account-matching problems that often occur during the results-matching process. Experimental results demonstrated that our proposed method enables the possibility of user identification using only a small amount of online data.</t>
+  </si>
+  <si>
+    <t>Social Internet of Vehicles (SIoV) is an emerging complex network where the features of Social Networks are applied to the SIoV system. User location data forms the basis for the implementation of SIoV functions. However, this type of data contains a large amount of user personal information, which may cause privacy leakage if it is stolen. Protecting the privacy of the user location can eliminate concerns about the leakage of user personal privacy data, increase users' viscosity, and help to contribute to the improvement of the SIoV system. This paper systematically analyzes the location privacy protection technology utilized in recent years in the field of SIoV, proposes three types of user data location privacy protection technology, and evaluates the performance of these technologies. We further present some potential future research directions for location privacy protection technology through the analysis and summary of existing work.</t>
+  </si>
+  <si>
+    <t>In the Social Internet of Vehicles (SIoV), sharing data among entities is prone to leaking private data. Protecting vehicle users privacy through encryption and anonymous method will generate large service overhead. To protect vehicle users location privacy with low service overhead, a location entropy-based privacy protection algorithm for Social Internet of Vehicles (LEPPV) has been proposed. Location entropy is used to measure the uncertainty of vehicle users' destination. The higher the location entropy, the higher the level of vehicle user location privacy protection. We use two methods to increase location entropy: vehicle users request the type of service rather than the content of the service; Multiple Point of Interests (POIs) are screened out for vehicle users. The roadside units (RSUs) actively caches surrounding POIs, so that the service overhead generated by service requests can be reduced. We verify the effectiveness of the proposed algorithm in Veins. The experimental results show that our algorithm is able to protect vehicle user location privacy while ensuring service quality.</t>
+  </si>
+  <si>
+    <t>The cooperative spectrum sensing of cognitive radio networks is quite important in the flexibility of spectrum sharing. The fusion center makes the access decision based on the feedback local sensing information from the secondary users (SUs). However, the local sensing information, which includes the SUs' geographical data, poses a threat to the privacy of those users. Security should be preserved in order to protect the SUs' privacy. In this paper, we aim to preserve the SUs' privacy and propose a location-based privacy protection strategy based on the users' mobile trajectory. The proposed privacy protection algorithm is based on the coordinates mean value, which considers the correlation of various attributes of current privacy protection methods, e.g., the k-anonymity algorithm and the generalization algorithm. The algorithm is optimized by the stochastic gradient descent method to obtain the best performance given different k-values. Simulation results show that the proposed algorithm is effective in terms of the degree of privacy protection, average anonymous time, cost, and loss.</t>
+  </si>
+  <si>
+    <t>Along with the hybrid power system mathematical model, three different kinds of power allocation strategies for PHEV with hybrid power system based on four-factor-method are put forward, and they are based on super-capacitor energy efficiency, PHEV operating environment and electric mechanism. The results of semi-physical simulation verify that the control strategy is effective. Compared with the allocation strategy based on the average motor power, the economy of all in the CD model strategy has the best performance, which can rise by 3.15%. The trend curves about the influences of each factor on economy drawn with the optimization results of SA, have reference value for establishing the power allocation strategy for hybrid power system.</t>
+  </si>
+  <si>
+    <t>Precise estimation of transmission input&amp;output shaft torque and wheel speed is significant to the development of torque distribution and coordinated control method for the power split hybrid powertrain system. This paper studies an estimation method of transmission input and output torque as well as drive wheel speed using an unknown input observer in different operating modes for a compound power split hybrid powertrain system. Firstly, the configuration and dynamic characteristic of power split transmission is analyzed. Then, state equations in different operating modes are established, and a Takagi-Sugeno (T-S) fuzzy model is utilized to deal with the nonlinearities of load resistance torque. Furthermore, an unknown input reduced-order observer is designed to estimate the transmission input&amp;output shaft torque and wheel speed. The asymptotical stability of the developed observer is verified based on Lyapunov theory. Finally, the performance of the unknown input observer is assessed by comparing with the Luenberger observer based on Matlab/Simulink simulation platform and test bench. Simulation and experiment results show that, the proposed observer can estimate the transmission input&amp;output shaft torque and wheel speed more effectively in different operating modes.</t>
+  </si>
+  <si>
+    <t>State of energy estimation of lithium-ion batteries applied in electric vehicles is required for users to predict the battery recharge time. The paper developed a new mathematical model for estimating state of energy in real-time. The recursive least squares method with an optimal forgetting factor was used to identify model parameters, and the adaptive extended Kalman filter was used to estimate the state of energy. Experimental results indicated that the developed method can realize accurate model parameter estimation with modeling error less than 2 mV. The state of energy estimation error was less than 2%. The developed method can still estimate accurate state of energy even if an erroneous initial state of energy value was available.</t>
+  </si>
+  <si>
+    <t>Accurate state of charge (SoC) estimation of batteries plays an important role in promoting the commercialization of electric vehicles. The main work to be done in accurately determining battery SoC can be summarized in three parts. (1) In view of the model-based SoC estimation flow diagram, the n-order resistance-capacitance (RC) battery model is proposed and expected to accurately simulate the battery's major time-variable, nonlinear characteristics. Then, the mathematical equations for model parameter identification and SoC estimation of this model are constructed. (2) The Akaike information criterion is used to determine an optimal tradeoff between battery model complexity and prediction precision for the n-order RC battery model. Results from a comparative analysis show that the first-order RC battery model is thought to be the best based on the Akaike information criterion (AIC) values. (3) The real-time joint estimator for the model parameter and SoC is constructed, and the application based on two battery types indicates that the proposed SoC estimator is a closed-loop identification system where the model parameter identification and SoC estimation are corrected mutually, adaptively and simultaneously according to the observer values. The maximum SoC estimation error is less than 1% for both battery types, even against the inaccurate initial SoC.</t>
+  </si>
+  <si>
+    <t>Accurate state of charge (SoC) estimation is of great significance for the lithium-ion battery to ensure its safety operation and to prevent it from overcharging or overdischarging. To achieve reliable SoC estimation for Li4Ti5O12 lithium-ion battery cell, three filtering methods have been compared and evaluated. A main contribution of this study is that a general three-step model-based battery SoC estimation scheme has been proposed. It includes the processes of battery data measurement, parametric modeling, and model-based SoC estimation. With the proposed general scheme, multiple types of model-based SoC estimators have been developed and evaluated for battery management system application. The detailed comparisons on three advanced adaptive filter techniques, which include extend Kalman filter, unscented Kalman filter, and adaptive extend Kalman filter (AEKF), have been implemented with a Li4Ti5O12 lithium-ion battery. The experimental results indicate that the proposed model-based SoC estimation approach with AEKF algorithm, which uses the covariance matching technique, performs well with good accuracy and robustness; the mean absolute error of the SoC estimation is within 1% especially with big SoC initial error.</t>
   </si>
 </sst>
 </file>
@@ -483,7 +912,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -556,64 +985,831 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="E2">
         <v>2023</v>
       </c>
       <c r="F2" t="s">
+        <v>78</v>
+      </c>
+      <c r="G2" t="s">
+        <v>85</v>
+      </c>
+      <c r="H2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" t="s">
+        <v>89</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>12</v>
+      </c>
+      <c r="M2">
+        <v>20</v>
+      </c>
+      <c r="P2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R2" t="s">
+        <v>132</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="T2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3">
+        <v>2018</v>
+      </c>
+      <c r="G3" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I3" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R3" t="s">
+        <v>133</v>
+      </c>
+      <c r="S3" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="T3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4">
+        <v>2022</v>
+      </c>
+      <c r="F4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>22</v>
+      </c>
+      <c r="M4">
+        <v>7</v>
+      </c>
+      <c r="N4">
+        <v>7385</v>
+      </c>
+      <c r="O4">
+        <v>7398</v>
+      </c>
+      <c r="P4" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" t="s">
+        <v>134</v>
+      </c>
+      <c r="S4" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="T4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5">
+        <v>2021</v>
+      </c>
+      <c r="F5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="K5">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>25</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>3199</v>
+      </c>
+      <c r="O5">
+        <v>3203</v>
+      </c>
+      <c r="P5" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R5" t="s">
+        <v>135</v>
+      </c>
+      <c r="S5" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="T5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6">
+        <v>2021</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>88</v>
+      </c>
+      <c r="I6" t="s">
+        <v>93</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>22</v>
+      </c>
+      <c r="O6">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R6" t="s">
+        <v>136</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="T6" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="B7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E7">
+        <v>2019</v>
+      </c>
+      <c r="F7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K7">
+        <v>12</v>
+      </c>
+      <c r="L7">
+        <v>11</v>
+      </c>
+      <c r="M7">
+        <v>9</v>
+      </c>
+      <c r="P7" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R7" t="s">
+        <v>137</v>
+      </c>
+      <c r="S7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="T7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>26</v>
       </c>
-      <c r="I2" t="s">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>201966</v>
+      </c>
+      <c r="O8">
+        <v>201984</v>
+      </c>
+      <c r="P8" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="R8" t="s">
+        <v>138</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="T8" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
         <v>27</v>
       </c>
-      <c r="K2">
-        <v>3</v>
-      </c>
-      <c r="L2">
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9">
+        <v>2023</v>
+      </c>
+      <c r="F9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H9" t="s">
+        <v>87</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>2</v>
+      </c>
+      <c r="N9">
+        <v>70</v>
+      </c>
+      <c r="O9">
+        <v>84</v>
+      </c>
+      <c r="P9" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="R9" t="s">
+        <v>139</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10">
+        <v>2023</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>130</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>3009</v>
+      </c>
+      <c r="O10">
+        <v>3025</v>
+      </c>
+      <c r="P10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R10" t="s">
+        <v>140</v>
+      </c>
+      <c r="S10" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="T10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="M2">
-        <v>4</v>
-      </c>
-      <c r="N2">
-        <v>1555</v>
-      </c>
-      <c r="O2">
-        <v>1566</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" s="2" t="s">
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" t="s">
+        <v>68</v>
+      </c>
+      <c r="E11">
+        <v>2018</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11">
+        <v>8</v>
+      </c>
+      <c r="L11">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>21971</v>
+      </c>
+      <c r="O11">
+        <v>21979</v>
+      </c>
+      <c r="P11" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="R11" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="T11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12">
+        <v>2015</v>
+      </c>
+      <c r="G12" t="s">
+        <v>86</v>
+      </c>
+      <c r="H12" t="s">
+        <v>88</v>
+      </c>
+      <c r="I12" t="s">
+        <v>98</v>
+      </c>
+      <c r="J12" t="s">
+        <v>104</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="P12" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="R12" t="s">
+        <v>142</v>
+      </c>
+      <c r="S12" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="T12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>74</v>
+      </c>
+      <c r="E13">
+        <v>2020</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G13" t="s">
+        <v>85</v>
+      </c>
+      <c r="H13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>69</v>
+      </c>
+      <c r="M13">
+        <v>5</v>
+      </c>
+      <c r="N13">
+        <v>4883</v>
+      </c>
+      <c r="O13">
+        <v>4893</v>
+      </c>
+      <c r="P13" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R13" t="s">
+        <v>143</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="T13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>75</v>
+      </c>
+      <c r="E14">
+        <v>2018</v>
+      </c>
+      <c r="G14" t="s">
+        <v>86</v>
+      </c>
+      <c r="H14" t="s">
+        <v>88</v>
+      </c>
+      <c r="I14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J14" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="R14" t="s">
+        <v>144</v>
+      </c>
+      <c r="S14" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="T14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15">
+        <v>2015</v>
+      </c>
+      <c r="F15" t="s">
+        <v>84</v>
+      </c>
+      <c r="G15" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" t="s">
+        <v>87</v>
+      </c>
+      <c r="I15" t="s">
+        <v>100</v>
+      </c>
+      <c r="K15">
         <v>29</v>
       </c>
-      <c r="R2" t="s">
-        <v>30</v>
-      </c>
-      <c r="S2" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>32</v>
+      <c r="L15">
+        <v>8</v>
+      </c>
+      <c r="M15">
+        <v>8</v>
+      </c>
+      <c r="N15">
+        <v>8594</v>
+      </c>
+      <c r="O15">
+        <v>8612</v>
+      </c>
+      <c r="P15" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" t="s">
+        <v>145</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="T15" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16">
+        <v>2015</v>
+      </c>
+      <c r="G16" t="s">
+        <v>85</v>
+      </c>
+      <c r="H16" t="s">
+        <v>87</v>
+      </c>
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2015</v>
+      </c>
+      <c r="P16" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R16" t="s">
+        <v>146</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="T16" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="Q2" r:id="rId1"/>
     <hyperlink ref="S2" r:id="rId2"/>
+    <hyperlink ref="Q3" r:id="rId3"/>
+    <hyperlink ref="S3" r:id="rId4"/>
+    <hyperlink ref="Q4" r:id="rId5"/>
+    <hyperlink ref="S4" r:id="rId6"/>
+    <hyperlink ref="Q5" r:id="rId7"/>
+    <hyperlink ref="S5" r:id="rId8"/>
+    <hyperlink ref="Q6" r:id="rId9"/>
+    <hyperlink ref="S6" r:id="rId10"/>
+    <hyperlink ref="Q7" r:id="rId11"/>
+    <hyperlink ref="S7" r:id="rId12"/>
+    <hyperlink ref="Q8" r:id="rId13"/>
+    <hyperlink ref="S8" r:id="rId14"/>
+    <hyperlink ref="Q9" r:id="rId15"/>
+    <hyperlink ref="S9" r:id="rId16"/>
+    <hyperlink ref="Q10" r:id="rId17"/>
+    <hyperlink ref="S10" r:id="rId18"/>
+    <hyperlink ref="Q11" r:id="rId19"/>
+    <hyperlink ref="S11" r:id="rId20"/>
+    <hyperlink ref="Q12" r:id="rId21"/>
+    <hyperlink ref="S12" r:id="rId22"/>
+    <hyperlink ref="Q13" r:id="rId23"/>
+    <hyperlink ref="S13" r:id="rId24"/>
+    <hyperlink ref="Q14" r:id="rId25"/>
+    <hyperlink ref="S14" r:id="rId26"/>
+    <hyperlink ref="Q15" r:id="rId27"/>
+    <hyperlink ref="S15" r:id="rId28"/>
+    <hyperlink ref="Q16" r:id="rId29"/>
+    <hyperlink ref="S16" r:id="rId30"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
